--- a/src/main/resources/noReceiveAmountDep.xlsx
+++ b/src/main/resources/noReceiveAmountDep.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>部门</t>
   </si>
@@ -26,28 +26,17 @@
   </si>
   <si>
     <t>坏账准备</t>
-  </si>
-  <si>
-    <t>小计</t>
   </si>
   <si>
     <t>t.totalInvoice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.noReceiveTotalInvoice</t>
+    <t>t.noReceiveTotalInvoice}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{sumInvoice}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{sumNoReceiveInvoice}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${{fe:list t t.departmentName}}</t>
+    <t>{{$fe:list t.key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +86,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,10 +142,10 @@
     <xf numFmtId="57" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,7 +458,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,27 +483,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="3"/>
     </row>
   </sheetData>

--- a/src/main/resources/noReceiveAmountDep.xlsx
+++ b/src/main/resources/noReceiveAmountDep.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>部门</t>
   </si>
@@ -32,11 +32,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.noReceiveTotalInvoice}}</t>
+    <t>{{$fe:list t.key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{$fe:list t.key</t>
+    <t>t.badInvoice}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.noReceiveTotalInvoice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -131,24 +135,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +465,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -466,42 +473,46 @@
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/noReceiveAmountDep.xlsx
+++ b/src/main/resources/noReceiveAmountDep.xlsx
@@ -28,19 +28,18 @@
     <t>坏账准备</t>
   </si>
   <si>
-    <t>t.totalInvoice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{$fe:list t.key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.badInvoice}}</t>
+    <t>fn:(t.totalInvoice;0.00)</t>
+  </si>
+  <si>
+    <t>fn:(t.badInvoice;0.00)}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.noReceiveTotalInvoice</t>
+    <t>fn:(t.noReceiveTotalInvoice;0.00)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -465,15 +464,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -492,10 +491,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
